--- a/excel2lua/src/language.xlsx
+++ b/excel2lua/src/language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18450"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -46,28 +46,16 @@
     <t>string</t>
   </si>
   <si>
-    <t>kaishi</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>back to main</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>Point: %d</t>
+    <t>afk_exp</t>
+  </si>
+  <si>
+    <t>%d/分钟</t>
+  </si>
+  <si>
+    <t>%d/min</t>
+  </si>
+  <si>
+    <t>afk_gold</t>
   </si>
 </sst>
 </file>
@@ -75,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -96,9 +84,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,44 +161,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +190,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -178,58 +205,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +421,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,53 +467,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,16 +490,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,16 +994,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="3" width="21.5583333333333" customWidth="1"/>
+    <col min="2" max="3" width="21.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1065,48 +1053,28 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/excel2lua/src/language.xlsx
+++ b/excel2lua/src/language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="21216" windowHeight="13475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -56,6 +56,243 @@
   </si>
   <si>
     <t>afk_gold</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>生命: %g</t>
+  </si>
+  <si>
+    <t>attr1</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>攻击: %g</t>
+  </si>
+  <si>
+    <t>attr2</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>防御: %g</t>
+  </si>
+  <si>
+    <t>attr3</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击率: %g</t>
+  </si>
+  <si>
+    <t>attr4</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>闪避: %g</t>
+  </si>
+  <si>
+    <t>attr5</t>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>命中: %g</t>
+  </si>
+  <si>
+    <t>attr6</t>
+  </si>
+  <si>
+    <t>急速</t>
+  </si>
+  <si>
+    <t>急速: %g</t>
+  </si>
+  <si>
+    <t>attr7</t>
+  </si>
+  <si>
+    <t>每秒恢复</t>
+  </si>
+  <si>
+    <t>每秒恢复: %g</t>
+  </si>
+  <si>
+    <t>attr8</t>
+  </si>
+  <si>
+    <t>物理减伤</t>
+  </si>
+  <si>
+    <t>物理减伤: %g</t>
+  </si>
+  <si>
+    <t>attr9</t>
+  </si>
+  <si>
+    <t>魔法减伤</t>
+  </si>
+  <si>
+    <t>魔法减伤: %g</t>
+  </si>
+  <si>
+    <t>attr10</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>吸血: %g</t>
+  </si>
+  <si>
+    <t>attr11</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>红糖果</t>
+  </si>
+  <si>
+    <t>candy1</t>
+  </si>
+  <si>
+    <t>橙糖果</t>
+  </si>
+  <si>
+    <t>candy2</t>
+  </si>
+  <si>
+    <t>黄糖果</t>
+  </si>
+  <si>
+    <t>candy3</t>
+  </si>
+  <si>
+    <t>绿糖果</t>
+  </si>
+  <si>
+    <t>candy4</t>
+  </si>
+  <si>
+    <t>青糖果</t>
+  </si>
+  <si>
+    <t>candy5</t>
+  </si>
+  <si>
+    <t>蓝糖果</t>
+  </si>
+  <si>
+    <t>candy6</t>
+  </si>
+  <si>
+    <t>紫糖果</t>
+  </si>
+  <si>
+    <t>candy7</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>jem1</t>
+  </si>
+  <si>
+    <t>橙宝石</t>
+  </si>
+  <si>
+    <t>jem2</t>
+  </si>
+  <si>
+    <t>黄宝石</t>
+  </si>
+  <si>
+    <t>jem3</t>
+  </si>
+  <si>
+    <t>绿宝石</t>
+  </si>
+  <si>
+    <t>jem4</t>
+  </si>
+  <si>
+    <t>青宝石</t>
+  </si>
+  <si>
+    <t>jem5</t>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+  </si>
+  <si>
+    <t>jem6</t>
+  </si>
+  <si>
+    <t>紫宝石</t>
+  </si>
+  <si>
+    <t>jem7</t>
+  </si>
+  <si>
+    <t>短剑</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>ring</t>
   </si>
 </sst>
 </file>
@@ -92,6 +329,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -107,10 +358,42 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,14 +406,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -153,7 +428,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,60 +457,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -230,187 +467,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,11 +663,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,26 +735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,39 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,13 +1231,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
     <col min="2" max="3" width="21.5555555555556" customWidth="1"/>
@@ -1077,6 +1314,482 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1007</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1010</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1011</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>10001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>10002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>10003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>10004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>10005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>10006</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>10007</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>10008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>10009</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>10010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>10011</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>10012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>10013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>10014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>10015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>10016</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>10017</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>10018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>10019</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>10020</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>10021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>10022</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>10023</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
